--- a/data/auffrischen.xlsx
+++ b/data/auffrischen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Bundesland</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t xml:space="preserve">az_auffrischen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnt_auffrischen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod_auffrischen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summe_jjazbntmod_auffrischen</t>
   </si>
   <si>
     <t xml:space="preserve">Baden-Württemberg</t>
@@ -422,10 +431,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>202108</v>
@@ -439,16 +457,25 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>270169</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5601</v>
+      </c>
+      <c r="H2" t="n">
+        <v>275770</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>202109</v>
       </c>
       <c r="C3" t="n">
-        <v>48297</v>
+        <v>48298</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -456,16 +483,25 @@
       <c r="E3" t="n">
         <v>123</v>
       </c>
+      <c r="F3" t="n">
+        <v>243806</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24356</v>
+      </c>
+      <c r="H3" t="n">
+        <v>268285</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>202110</v>
       </c>
       <c r="C4" t="n">
-        <v>84036</v>
+        <v>84038</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -473,10 +509,19 @@
       <c r="E4" t="n">
         <v>3752</v>
       </c>
+      <c r="F4" t="n">
+        <v>252986</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>273698</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>202111</v>
@@ -490,10 +535,19 @@
       <c r="E5" t="n">
         <v>119599</v>
       </c>
+      <c r="F5" t="n">
+        <v>873178</v>
+      </c>
+      <c r="G5" t="n">
+        <v>98772</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1162220</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>202112</v>
@@ -507,16 +561,25 @@
       <c r="E6" t="n">
         <v>197781</v>
       </c>
+      <c r="F6" t="n">
+        <v>1539961</v>
+      </c>
+      <c r="G6" t="n">
+        <v>223550</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2124078</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>202201</v>
       </c>
       <c r="C7" t="n">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="D7" t="n">
         <v>71136</v>
@@ -524,27 +587,45 @@
       <c r="E7" t="n">
         <v>69484</v>
       </c>
+      <c r="F7" t="n">
+        <v>1440132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>223225</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1803977</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>202108</v>
       </c>
       <c r="C8" t="n">
-        <v>437865</v>
+        <v>437855</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>358955</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9576</v>
+      </c>
+      <c r="H8" t="n">
+        <v>368531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>202109</v>
@@ -558,10 +639,19 @@
       <c r="E9" t="n">
         <v>80</v>
       </c>
+      <c r="F9" t="n">
+        <v>331341</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16496</v>
+      </c>
+      <c r="H9" t="n">
+        <v>347917</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>202110</v>
@@ -575,16 +665,25 @@
       <c r="E10" t="n">
         <v>13460</v>
       </c>
+      <c r="F10" t="n">
+        <v>177178</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35721</v>
+      </c>
+      <c r="H10" t="n">
+        <v>226359</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>202111</v>
       </c>
       <c r="C11" t="n">
-        <v>41120</v>
+        <v>41119</v>
       </c>
       <c r="D11" t="n">
         <v>69844</v>
@@ -592,10 +691,19 @@
       <c r="E11" t="n">
         <v>98868</v>
       </c>
+      <c r="F11" t="n">
+        <v>1128430</v>
+      </c>
+      <c r="G11" t="n">
+        <v>118157</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1415299</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
         <v>202112</v>
@@ -609,16 +717,25 @@
       <c r="E12" t="n">
         <v>323588</v>
       </c>
+      <c r="F12" t="n">
+        <v>1801705</v>
+      </c>
+      <c r="G12" t="n">
+        <v>255646</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2561472</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
         <v>202201</v>
       </c>
       <c r="C13" t="n">
-        <v>6469</v>
+        <v>6471</v>
       </c>
       <c r="D13" t="n">
         <v>69663</v>
@@ -626,27 +743,45 @@
       <c r="E13" t="n">
         <v>104823</v>
       </c>
+      <c r="F13" t="n">
+        <v>1301708</v>
+      </c>
+      <c r="G13" t="n">
+        <v>204489</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1680683</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>202108</v>
       </c>
       <c r="C14" t="n">
-        <v>129210</v>
+        <v>129208</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>117175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2772</v>
+      </c>
+      <c r="H14" t="n">
+        <v>119947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
         <v>202109</v>
@@ -660,10 +795,19 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>83206</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4849</v>
+      </c>
+      <c r="H15" t="n">
+        <v>88055</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
         <v>202110</v>
@@ -677,10 +821,19 @@
       <c r="E16" t="n">
         <v>523</v>
       </c>
+      <c r="F16" t="n">
+        <v>95444</v>
+      </c>
+      <c r="G16" t="n">
+        <v>34449</v>
+      </c>
+      <c r="H16" t="n">
+        <v>132091</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
         <v>202111</v>
@@ -694,10 +847,19 @@
       <c r="E17" t="n">
         <v>16840</v>
       </c>
+      <c r="F17" t="n">
+        <v>266461</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18151</v>
+      </c>
+      <c r="H17" t="n">
+        <v>317244</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>202112</v>
@@ -711,10 +873,19 @@
       <c r="E18" t="n">
         <v>85085</v>
       </c>
+      <c r="F18" t="n">
+        <v>439715</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80406</v>
+      </c>
+      <c r="H18" t="n">
+        <v>659768</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
         <v>202201</v>
@@ -728,10 +899,19 @@
       <c r="E19" t="n">
         <v>15426</v>
       </c>
+      <c r="F19" t="n">
+        <v>423434</v>
+      </c>
+      <c r="G19" t="n">
+        <v>114303</v>
+      </c>
+      <c r="H19" t="n">
+        <v>566296</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
         <v>202108</v>
@@ -745,10 +925,19 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>74562</v>
+      </c>
+      <c r="G20" t="n">
+        <v>894</v>
+      </c>
+      <c r="H20" t="n">
+        <v>75456</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
         <v>202109</v>
@@ -762,10 +951,19 @@
       <c r="E21" t="n">
         <v>4</v>
       </c>
+      <c r="F21" t="n">
+        <v>22749</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3225</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25978</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
         <v>202110</v>
@@ -779,10 +977,19 @@
       <c r="E22" t="n">
         <v>3057</v>
       </c>
+      <c r="F22" t="n">
+        <v>64610</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11884</v>
+      </c>
+      <c r="H22" t="n">
+        <v>79551</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
         <v>202111</v>
@@ -796,10 +1003,19 @@
       <c r="E23" t="n">
         <v>24959</v>
       </c>
+      <c r="F23" t="n">
+        <v>208915</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32683</v>
+      </c>
+      <c r="H23" t="n">
+        <v>280683</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
         <v>202112</v>
@@ -813,10 +1029,19 @@
       <c r="E24" t="n">
         <v>56713</v>
       </c>
+      <c r="F24" t="n">
+        <v>273824</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24082</v>
+      </c>
+      <c r="H24" t="n">
+        <v>404934</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
         <v>202201</v>
@@ -830,10 +1055,19 @@
       <c r="E25" t="n">
         <v>23401</v>
       </c>
+      <c r="F25" t="n">
+        <v>289418</v>
+      </c>
+      <c r="G25" t="n">
+        <v>46455</v>
+      </c>
+      <c r="H25" t="n">
+        <v>369096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
         <v>202108</v>
@@ -847,10 +1081,19 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>20052</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1253</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21305</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
         <v>202109</v>
@@ -864,10 +1107,19 @@
       <c r="E27" t="n">
         <v>3</v>
       </c>
+      <c r="F27" t="n">
+        <v>13784</v>
+      </c>
+      <c r="G27" t="n">
+        <v>765</v>
+      </c>
+      <c r="H27" t="n">
+        <v>14552</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
         <v>202110</v>
@@ -881,10 +1133,19 @@
       <c r="E28" t="n">
         <v>282</v>
       </c>
+      <c r="F28" t="n">
+        <v>23069</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1137</v>
+      </c>
+      <c r="H28" t="n">
+        <v>24488</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>202111</v>
@@ -898,10 +1159,19 @@
       <c r="E29" t="n">
         <v>5853</v>
       </c>
+      <c r="F29" t="n">
+        <v>66372</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7551</v>
+      </c>
+      <c r="H29" t="n">
+        <v>88491</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
         <v>202112</v>
@@ -915,10 +1185,19 @@
       <c r="E30" t="n">
         <v>12239</v>
       </c>
+      <c r="F30" t="n">
+        <v>74508</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8955</v>
+      </c>
+      <c r="H30" t="n">
+        <v>107845</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>202201</v>
@@ -932,10 +1211,19 @@
       <c r="E31" t="n">
         <v>3743</v>
       </c>
+      <c r="F31" t="n">
+        <v>130818</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19379</v>
+      </c>
+      <c r="H31" t="n">
+        <v>162348</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
         <v>202108</v>
@@ -949,10 +1237,19 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="n">
+        <v>53375</v>
+      </c>
+      <c r="G32" t="n">
+        <v>512</v>
+      </c>
+      <c r="H32" t="n">
+        <v>53887</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
         <v>202109</v>
@@ -966,10 +1263,19 @@
       <c r="E33" t="n">
         <v>43</v>
       </c>
+      <c r="F33" t="n">
+        <v>35727</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36870</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B34" t="n">
         <v>202110</v>
@@ -983,10 +1289,19 @@
       <c r="E34" t="n">
         <v>102</v>
       </c>
+      <c r="F34" t="n">
+        <v>27864</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5312</v>
+      </c>
+      <c r="H34" t="n">
+        <v>33610</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
         <v>202111</v>
@@ -1000,10 +1315,19 @@
       <c r="E35" t="n">
         <v>6311</v>
       </c>
+      <c r="F35" t="n">
+        <v>170557</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16134</v>
+      </c>
+      <c r="H35" t="n">
+        <v>201198</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B36" t="n">
         <v>202112</v>
@@ -1017,10 +1341,19 @@
       <c r="E36" t="n">
         <v>26601</v>
       </c>
+      <c r="F36" t="n">
+        <v>222936</v>
+      </c>
+      <c r="G36" t="n">
+        <v>60615</v>
+      </c>
+      <c r="H36" t="n">
+        <v>347321</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37" t="n">
         <v>202201</v>
@@ -1034,10 +1367,19 @@
       <c r="E37" t="n">
         <v>5868</v>
       </c>
+      <c r="F37" t="n">
+        <v>172621</v>
+      </c>
+      <c r="G37" t="n">
+        <v>49466</v>
+      </c>
+      <c r="H37" t="n">
+        <v>238116</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
         <v>202108</v>
@@ -1051,10 +1393,19 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>139522</v>
+      </c>
+      <c r="G38" t="n">
+        <v>150</v>
+      </c>
+      <c r="H38" t="n">
+        <v>139672</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39" t="n">
         <v>202109</v>
@@ -1068,16 +1419,25 @@
       <c r="E39" t="n">
         <v>81</v>
       </c>
+      <c r="F39" t="n">
+        <v>180823</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10505</v>
+      </c>
+      <c r="H39" t="n">
+        <v>191409</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
         <v>202110</v>
       </c>
       <c r="C40" t="n">
-        <v>44745</v>
+        <v>44742</v>
       </c>
       <c r="D40" t="n">
         <v>42</v>
@@ -1085,10 +1445,19 @@
       <c r="E40" t="n">
         <v>1143</v>
       </c>
+      <c r="F40" t="n">
+        <v>138862</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11640</v>
+      </c>
+      <c r="H40" t="n">
+        <v>151687</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" t="n">
         <v>202111</v>
@@ -1102,10 +1471,19 @@
       <c r="E41" t="n">
         <v>87116</v>
       </c>
+      <c r="F41" t="n">
+        <v>381627</v>
+      </c>
+      <c r="G41" t="n">
+        <v>37618</v>
+      </c>
+      <c r="H41" t="n">
+        <v>531886</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42" t="n">
         <v>202112</v>
@@ -1119,10 +1497,19 @@
       <c r="E42" t="n">
         <v>110938</v>
       </c>
+      <c r="F42" t="n">
+        <v>905216</v>
+      </c>
+      <c r="G42" t="n">
+        <v>141914</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1259810</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43" t="n">
         <v>202201</v>
@@ -1136,27 +1523,45 @@
       <c r="E43" t="n">
         <v>68827</v>
       </c>
+      <c r="F43" t="n">
+        <v>732165</v>
+      </c>
+      <c r="G43" t="n">
+        <v>104841</v>
+      </c>
+      <c r="H43" t="n">
+        <v>948651</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="n">
         <v>202108</v>
       </c>
       <c r="C44" t="n">
-        <v>24700</v>
+        <v>24701</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>48759</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1183</v>
+      </c>
+      <c r="H44" t="n">
+        <v>49942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
         <v>202109</v>
@@ -1170,10 +1575,19 @@
       <c r="E45" t="n">
         <v>78</v>
       </c>
+      <c r="F45" t="n">
+        <v>22148</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3421</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25647</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
         <v>202110</v>
@@ -1187,10 +1601,19 @@
       <c r="E46" t="n">
         <v>382</v>
       </c>
+      <c r="F46" t="n">
+        <v>30730</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3248</v>
+      </c>
+      <c r="H46" t="n">
+        <v>34366</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
         <v>202111</v>
@@ -1204,10 +1627,19 @@
       <c r="E47" t="n">
         <v>9406</v>
       </c>
+      <c r="F47" t="n">
+        <v>149028</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12116</v>
+      </c>
+      <c r="H47" t="n">
+        <v>179500</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B48" t="n">
         <v>202112</v>
@@ -1221,10 +1653,19 @@
       <c r="E48" t="n">
         <v>33960</v>
       </c>
+      <c r="F48" t="n">
+        <v>258219</v>
+      </c>
+      <c r="G48" t="n">
+        <v>30864</v>
+      </c>
+      <c r="H48" t="n">
+        <v>348325</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
         <v>202201</v>
@@ -1238,10 +1679,19 @@
       <c r="E49" t="n">
         <v>20526</v>
       </c>
+      <c r="F49" t="n">
+        <v>144109</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25311</v>
+      </c>
+      <c r="H49" t="n">
+        <v>197273</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B50" t="n">
         <v>202108</v>
@@ -1255,10 +1705,19 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>171498</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1625</v>
+      </c>
+      <c r="H50" t="n">
+        <v>173123</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
         <v>202109</v>
@@ -1272,10 +1731,19 @@
       <c r="E51" t="n">
         <v>433</v>
       </c>
+      <c r="F51" t="n">
+        <v>224191</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10426</v>
+      </c>
+      <c r="H51" t="n">
+        <v>235050</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
         <v>202110</v>
@@ -1289,16 +1757,25 @@
       <c r="E52" t="n">
         <v>1372</v>
       </c>
+      <c r="F52" t="n">
+        <v>122949</v>
+      </c>
+      <c r="G52" t="n">
+        <v>14135</v>
+      </c>
+      <c r="H52" t="n">
+        <v>138456</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B53" t="n">
         <v>202111</v>
       </c>
       <c r="C53" t="n">
-        <v>17908</v>
+        <v>17904</v>
       </c>
       <c r="D53" t="n">
         <v>68405</v>
@@ -1306,10 +1783,19 @@
       <c r="E53" t="n">
         <v>47846</v>
       </c>
+      <c r="F53" t="n">
+        <v>559432</v>
+      </c>
+      <c r="G53" t="n">
+        <v>80966</v>
+      </c>
+      <c r="H53" t="n">
+        <v>756649</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B54" t="n">
         <v>202112</v>
@@ -1323,10 +1809,19 @@
       <c r="E54" t="n">
         <v>138997</v>
       </c>
+      <c r="F54" t="n">
+        <v>1164037</v>
+      </c>
+      <c r="G54" t="n">
+        <v>115765</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1604297</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
         <v>202201</v>
@@ -1340,27 +1835,45 @@
       <c r="E55" t="n">
         <v>128414</v>
       </c>
+      <c r="F55" t="n">
+        <v>903163</v>
+      </c>
+      <c r="G55" t="n">
+        <v>173691</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1257640</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B56" t="n">
         <v>202108</v>
       </c>
       <c r="C56" t="n">
-        <v>533204</v>
+        <v>533205</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>410905</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5918</v>
+      </c>
+      <c r="H56" t="n">
+        <v>416823</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B57" t="n">
         <v>202109</v>
@@ -1374,16 +1887,25 @@
       <c r="E57" t="n">
         <v>944</v>
       </c>
+      <c r="F57" t="n">
+        <v>393406</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14945</v>
+      </c>
+      <c r="H57" t="n">
+        <v>409295</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B58" t="n">
         <v>202110</v>
       </c>
       <c r="C58" t="n">
-        <v>129824</v>
+        <v>129825</v>
       </c>
       <c r="D58" t="n">
         <v>3</v>
@@ -1391,10 +1913,19 @@
       <c r="E58" t="n">
         <v>6354</v>
       </c>
+      <c r="F58" t="n">
+        <v>458914</v>
+      </c>
+      <c r="G58" t="n">
+        <v>38192</v>
+      </c>
+      <c r="H58" t="n">
+        <v>503463</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B59" t="n">
         <v>202111</v>
@@ -1408,16 +1939,25 @@
       <c r="E59" t="n">
         <v>109082</v>
       </c>
+      <c r="F59" t="n">
+        <v>1534243</v>
+      </c>
+      <c r="G59" t="n">
+        <v>107926</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1846917</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n">
         <v>202112</v>
       </c>
       <c r="C60" t="n">
-        <v>11090</v>
+        <v>11089</v>
       </c>
       <c r="D60" t="n">
         <v>411510</v>
@@ -1425,10 +1965,19 @@
       <c r="E60" t="n">
         <v>484609</v>
       </c>
+      <c r="F60" t="n">
+        <v>2819079</v>
+      </c>
+      <c r="G60" t="n">
+        <v>446591</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4161789</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
         <v>202201</v>
@@ -1442,27 +1991,45 @@
       <c r="E61" t="n">
         <v>158503</v>
       </c>
+      <c r="F61" t="n">
+        <v>1915123</v>
+      </c>
+      <c r="G61" t="n">
+        <v>181636</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2336321</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
         <v>202108</v>
       </c>
       <c r="C62" t="n">
-        <v>102365</v>
+        <v>102360</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>136420</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3731</v>
+      </c>
+      <c r="H62" t="n">
+        <v>140151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B63" t="n">
         <v>202109</v>
@@ -1476,16 +2043,25 @@
       <c r="E63" t="n">
         <v>75</v>
       </c>
+      <c r="F63" t="n">
+        <v>40135</v>
+      </c>
+      <c r="G63" t="n">
+        <v>819</v>
+      </c>
+      <c r="H63" t="n">
+        <v>41029</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B64" t="n">
         <v>202110</v>
       </c>
       <c r="C64" t="n">
-        <v>24192</v>
+        <v>24190</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1493,16 +2069,25 @@
       <c r="E64" t="n">
         <v>6847</v>
       </c>
+      <c r="F64" t="n">
+        <v>126780</v>
+      </c>
+      <c r="G64" t="n">
+        <v>16537</v>
+      </c>
+      <c r="H64" t="n">
+        <v>150164</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B65" t="n">
         <v>202111</v>
       </c>
       <c r="C65" t="n">
-        <v>11604</v>
+        <v>11606</v>
       </c>
       <c r="D65" t="n">
         <v>16580</v>
@@ -1510,10 +2095,19 @@
       <c r="E65" t="n">
         <v>36719</v>
       </c>
+      <c r="F65" t="n">
+        <v>379424</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25941</v>
+      </c>
+      <c r="H65" t="n">
+        <v>458664</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
         <v>202112</v>
@@ -1527,16 +2121,25 @@
       <c r="E66" t="n">
         <v>92680</v>
       </c>
+      <c r="F66" t="n">
+        <v>459586</v>
+      </c>
+      <c r="G66" t="n">
+        <v>71833</v>
+      </c>
+      <c r="H66" t="n">
+        <v>702912</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B67" t="n">
         <v>202201</v>
       </c>
       <c r="C67" t="n">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D67" t="n">
         <v>18870</v>
@@ -1544,10 +2147,19 @@
       <c r="E67" t="n">
         <v>40179</v>
       </c>
+      <c r="F67" t="n">
+        <v>515964</v>
+      </c>
+      <c r="G67" t="n">
+        <v>86867</v>
+      </c>
+      <c r="H67" t="n">
+        <v>661880</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B68" t="n">
         <v>202108</v>
@@ -1561,10 +2173,19 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>22592</v>
+      </c>
+      <c r="G68" t="n">
+        <v>708</v>
+      </c>
+      <c r="H68" t="n">
+        <v>23300</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B69" t="n">
         <v>202109</v>
@@ -1578,10 +2199,19 @@
       <c r="E69" t="n">
         <v>10</v>
       </c>
+      <c r="F69" t="n">
+        <v>22605</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1088</v>
+      </c>
+      <c r="H69" t="n">
+        <v>23703</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B70" t="n">
         <v>202110</v>
@@ -1595,10 +2225,19 @@
       <c r="E70" t="n">
         <v>565</v>
       </c>
+      <c r="F70" t="n">
+        <v>32025</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5054</v>
+      </c>
+      <c r="H70" t="n">
+        <v>37644</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B71" t="n">
         <v>202111</v>
@@ -1612,10 +2251,19 @@
       <c r="E71" t="n">
         <v>7544</v>
       </c>
+      <c r="F71" t="n">
+        <v>104709</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8121</v>
+      </c>
+      <c r="H71" t="n">
+        <v>124216</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B72" t="n">
         <v>202112</v>
@@ -1629,10 +2277,19 @@
       <c r="E72" t="n">
         <v>13454</v>
       </c>
+      <c r="F72" t="n">
+        <v>172801</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15575</v>
+      </c>
+      <c r="H72" t="n">
+        <v>221836</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B73" t="n">
         <v>202201</v>
@@ -1646,27 +2303,45 @@
       <c r="E73" t="n">
         <v>5640</v>
       </c>
+      <c r="F73" t="n">
+        <v>101186</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9099</v>
+      </c>
+      <c r="H73" t="n">
+        <v>121365</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B74" t="n">
         <v>202108</v>
       </c>
       <c r="C74" t="n">
-        <v>195175</v>
+        <v>195176</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>97174</v>
+      </c>
+      <c r="G74" t="n">
+        <v>820</v>
+      </c>
+      <c r="H74" t="n">
+        <v>97994</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B75" t="n">
         <v>202109</v>
@@ -1680,10 +2355,19 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>138956</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11576</v>
+      </c>
+      <c r="H75" t="n">
+        <v>150532</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B76" t="n">
         <v>202110</v>
@@ -1697,16 +2381,25 @@
       <c r="E76" t="n">
         <v>713</v>
       </c>
+      <c r="F76" t="n">
+        <v>133929</v>
+      </c>
+      <c r="G76" t="n">
+        <v>14234</v>
+      </c>
+      <c r="H76" t="n">
+        <v>148914</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B77" t="n">
         <v>202111</v>
       </c>
       <c r="C77" t="n">
-        <v>18566</v>
+        <v>18567</v>
       </c>
       <c r="D77" t="n">
         <v>19843</v>
@@ -1714,10 +2407,19 @@
       <c r="E77" t="n">
         <v>22784</v>
       </c>
+      <c r="F77" t="n">
+        <v>388578</v>
+      </c>
+      <c r="G77" t="n">
+        <v>36578</v>
+      </c>
+      <c r="H77" t="n">
+        <v>467783</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B78" t="n">
         <v>202112</v>
@@ -1731,10 +2433,19 @@
       <c r="E78" t="n">
         <v>106453</v>
       </c>
+      <c r="F78" t="n">
+        <v>386664</v>
+      </c>
+      <c r="G78" t="n">
+        <v>89212</v>
+      </c>
+      <c r="H78" t="n">
+        <v>625505</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B79" t="n">
         <v>202201</v>
@@ -1748,27 +2459,45 @@
       <c r="E79" t="n">
         <v>38938</v>
       </c>
+      <c r="F79" t="n">
+        <v>359617</v>
+      </c>
+      <c r="G79" t="n">
+        <v>30041</v>
+      </c>
+      <c r="H79" t="n">
+        <v>441095</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B80" t="n">
         <v>202108</v>
       </c>
       <c r="C80" t="n">
-        <v>61072</v>
+        <v>61073</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>52468</v>
+      </c>
+      <c r="G80" t="n">
+        <v>761</v>
+      </c>
+      <c r="H80" t="n">
+        <v>53229</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B81" t="n">
         <v>202109</v>
@@ -1782,10 +2511,19 @@
       <c r="E81" t="n">
         <v>5</v>
       </c>
+      <c r="F81" t="n">
+        <v>40614</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5552</v>
+      </c>
+      <c r="H81" t="n">
+        <v>46171</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B82" t="n">
         <v>202110</v>
@@ -1799,16 +2537,25 @@
       <c r="E82" t="n">
         <v>1156</v>
       </c>
+      <c r="F82" t="n">
+        <v>47378</v>
+      </c>
+      <c r="G82" t="n">
+        <v>8346</v>
+      </c>
+      <c r="H82" t="n">
+        <v>56880</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B83" t="n">
         <v>202111</v>
       </c>
       <c r="C83" t="n">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="D83" t="n">
         <v>15224</v>
@@ -1816,10 +2563,19 @@
       <c r="E83" t="n">
         <v>14201</v>
       </c>
+      <c r="F83" t="n">
+        <v>177962</v>
+      </c>
+      <c r="G83" t="n">
+        <v>23975</v>
+      </c>
+      <c r="H83" t="n">
+        <v>231362</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B84" t="n">
         <v>202112</v>
@@ -1833,10 +2589,19 @@
       <c r="E84" t="n">
         <v>53676</v>
       </c>
+      <c r="F84" t="n">
+        <v>285387</v>
+      </c>
+      <c r="G84" t="n">
+        <v>32139</v>
+      </c>
+      <c r="H84" t="n">
+        <v>414156</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B85" t="n">
         <v>202201</v>
@@ -1850,10 +2615,19 @@
       <c r="E85" t="n">
         <v>14364</v>
       </c>
+      <c r="F85" t="n">
+        <v>231874</v>
+      </c>
+      <c r="G85" t="n">
+        <v>42550</v>
+      </c>
+      <c r="H85" t="n">
+        <v>303688</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B86" t="n">
         <v>202108</v>
@@ -1867,10 +2641,19 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
+      <c r="F86" t="n">
+        <v>89394</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1440</v>
+      </c>
+      <c r="H86" t="n">
+        <v>90834</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B87" t="n">
         <v>202109</v>
@@ -1884,16 +2667,25 @@
       <c r="E87" t="n">
         <v>106</v>
       </c>
+      <c r="F87" t="n">
+        <v>23009</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2205</v>
+      </c>
+      <c r="H87" t="n">
+        <v>25320</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B88" t="n">
         <v>202110</v>
       </c>
       <c r="C88" t="n">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1901,16 +2693,25 @@
       <c r="E88" t="n">
         <v>1748</v>
       </c>
+      <c r="F88" t="n">
+        <v>108213</v>
+      </c>
+      <c r="G88" t="n">
+        <v>13025</v>
+      </c>
+      <c r="H88" t="n">
+        <v>122986</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B89" t="n">
         <v>202111</v>
       </c>
       <c r="C89" t="n">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="D89" t="n">
         <v>18697</v>
@@ -1918,10 +2719,19 @@
       <c r="E89" t="n">
         <v>29182</v>
       </c>
+      <c r="F89" t="n">
+        <v>262022</v>
+      </c>
+      <c r="G89" t="n">
+        <v>31238</v>
+      </c>
+      <c r="H89" t="n">
+        <v>341139</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B90" t="n">
         <v>202112</v>
@@ -1935,10 +2745,19 @@
       <c r="E90" t="n">
         <v>71455</v>
       </c>
+      <c r="F90" t="n">
+        <v>372547</v>
+      </c>
+      <c r="G90" t="n">
+        <v>41511</v>
+      </c>
+      <c r="H90" t="n">
+        <v>535875</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B91" t="n">
         <v>202201</v>
@@ -1952,10 +2771,19 @@
       <c r="E91" t="n">
         <v>33574</v>
       </c>
+      <c r="F91" t="n">
+        <v>365110</v>
+      </c>
+      <c r="G91" t="n">
+        <v>60620</v>
+      </c>
+      <c r="H91" t="n">
+        <v>486501</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B92" t="n">
         <v>202108</v>
@@ -1969,16 +2797,25 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>59447</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>59448</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B93" t="n">
         <v>202109</v>
       </c>
       <c r="C93" t="n">
-        <v>18788</v>
+        <v>18789</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1986,16 +2823,25 @@
       <c r="E93" t="n">
         <v>12</v>
       </c>
+      <c r="F93" t="n">
+        <v>54299</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8858</v>
+      </c>
+      <c r="H93" t="n">
+        <v>63169</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B94" t="n">
         <v>202110</v>
       </c>
       <c r="C94" t="n">
-        <v>22117</v>
+        <v>22116</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -2003,10 +2849,19 @@
       <c r="E94" t="n">
         <v>530</v>
       </c>
+      <c r="F94" t="n">
+        <v>100527</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10980</v>
+      </c>
+      <c r="H94" t="n">
+        <v>112047</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B95" t="n">
         <v>202111</v>
@@ -2020,10 +2875,19 @@
       <c r="E95" t="n">
         <v>15161</v>
       </c>
+      <c r="F95" t="n">
+        <v>158132</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5563</v>
+      </c>
+      <c r="H95" t="n">
+        <v>186033</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B96" t="n">
         <v>202112</v>
@@ -2037,10 +2901,19 @@
       <c r="E96" t="n">
         <v>41407</v>
       </c>
+      <c r="F96" t="n">
+        <v>226837</v>
+      </c>
+      <c r="G96" t="n">
+        <v>45268</v>
+      </c>
+      <c r="H96" t="n">
+        <v>338776</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B97" t="n">
         <v>202201</v>
@@ -2053,6 +2926,15 @@
       </c>
       <c r="E97" t="n">
         <v>16405</v>
+      </c>
+      <c r="F97" t="n">
+        <v>228380</v>
+      </c>
+      <c r="G97" t="n">
+        <v>67661</v>
+      </c>
+      <c r="H97" t="n">
+        <v>327342</v>
       </c>
     </row>
   </sheetData>

--- a/data/auffrischen.xlsx
+++ b/data/auffrischen.xlsx
@@ -437,19 +437,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2752418</v>
+        <v>3141621</v>
       </c>
       <c r="C2" t="n">
-        <v>1895671</v>
+        <v>2473583</v>
       </c>
       <c r="D2" t="n">
-        <v>1126398</v>
+        <v>1389967</v>
       </c>
       <c r="E2" t="n">
-        <v>3336427</v>
+        <v>3383743</v>
       </c>
       <c r="F2" t="n">
-        <v>1208916</v>
+        <v>1252999</v>
       </c>
     </row>
     <row r="3">
@@ -457,19 +457,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>58126</v>
+        <v>69812</v>
       </c>
       <c r="C3" t="n">
-        <v>70363</v>
+        <v>84362</v>
       </c>
       <c r="D3" t="n">
-        <v>39085</v>
+        <v>44666</v>
       </c>
       <c r="E3" t="n">
-        <v>107028</v>
+        <v>107712</v>
       </c>
       <c r="F3" t="n">
-        <v>33223</v>
+        <v>33852</v>
       </c>
     </row>
     <row r="4">
@@ -477,19 +477,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>165639</v>
+        <v>182678</v>
       </c>
       <c r="C4" t="n">
-        <v>46258</v>
+        <v>67963</v>
       </c>
       <c r="D4" t="n">
-        <v>32632</v>
+        <v>42267</v>
       </c>
       <c r="E4" t="n">
-        <v>139647</v>
+        <v>141691</v>
       </c>
       <c r="F4" t="n">
-        <v>28559</v>
+        <v>31568</v>
       </c>
     </row>
     <row r="5">
@@ -497,19 +497,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>388265</v>
+        <v>436563</v>
       </c>
       <c r="C5" t="n">
-        <v>207292</v>
+        <v>291330</v>
       </c>
       <c r="D5" t="n">
-        <v>190270</v>
+        <v>233289</v>
       </c>
       <c r="E5" t="n">
-        <v>360567</v>
+        <v>368949</v>
       </c>
       <c r="F5" t="n">
-        <v>140620</v>
+        <v>145801</v>
       </c>
     </row>
     <row r="6">
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>451619</v>
+        <v>514985</v>
       </c>
       <c r="C6" t="n">
-        <v>306277</v>
+        <v>403058</v>
       </c>
       <c r="D6" t="n">
-        <v>168712</v>
+        <v>209831</v>
       </c>
       <c r="E6" t="n">
-        <v>504121</v>
+        <v>512504</v>
       </c>
       <c r="F6" t="n">
-        <v>174486</v>
+        <v>180957</v>
       </c>
     </row>
     <row r="7">
@@ -537,19 +537,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>23682</v>
+        <v>26626</v>
       </c>
       <c r="C7" t="n">
-        <v>20989</v>
+        <v>25347</v>
       </c>
       <c r="D7" t="n">
-        <v>14568</v>
+        <v>16254</v>
       </c>
       <c r="E7" t="n">
-        <v>24382</v>
+        <v>24762</v>
       </c>
       <c r="F7" t="n">
-        <v>12151</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="8">
@@ -557,19 +557,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>226030</v>
+        <v>257296</v>
       </c>
       <c r="C8" t="n">
-        <v>137079</v>
+        <v>181821</v>
       </c>
       <c r="D8" t="n">
-        <v>112641</v>
+        <v>134221</v>
       </c>
       <c r="E8" t="n">
-        <v>212680</v>
+        <v>217035</v>
       </c>
       <c r="F8" t="n">
-        <v>111645</v>
+        <v>115675</v>
       </c>
     </row>
     <row r="9">
@@ -577,19 +577,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>54610</v>
+        <v>64208</v>
       </c>
       <c r="C9" t="n">
-        <v>27005</v>
+        <v>37605</v>
       </c>
       <c r="D9" t="n">
-        <v>14507</v>
+        <v>18390</v>
       </c>
       <c r="E9" t="n">
-        <v>63770</v>
+        <v>64918</v>
       </c>
       <c r="F9" t="n">
-        <v>16029</v>
+        <v>17865</v>
       </c>
     </row>
     <row r="10">
@@ -597,19 +597,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>48342</v>
+        <v>54586</v>
       </c>
       <c r="C10" t="n">
-        <v>31468</v>
+        <v>41062</v>
       </c>
       <c r="D10" t="n">
-        <v>18356</v>
+        <v>21673</v>
       </c>
       <c r="E10" t="n">
-        <v>59242</v>
+        <v>59541</v>
       </c>
       <c r="F10" t="n">
-        <v>27853</v>
+        <v>28160</v>
       </c>
     </row>
     <row r="11">
@@ -617,19 +617,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>296606</v>
+        <v>329928</v>
       </c>
       <c r="C11" t="n">
-        <v>140416</v>
+        <v>181709</v>
       </c>
       <c r="D11" t="n">
-        <v>116251</v>
+        <v>134155</v>
       </c>
       <c r="E11" t="n">
-        <v>324495</v>
+        <v>327342</v>
       </c>
       <c r="F11" t="n">
-        <v>180786</v>
+        <v>185017</v>
       </c>
     </row>
     <row r="12">
@@ -637,19 +637,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>491006</v>
+        <v>571606</v>
       </c>
       <c r="C12" t="n">
-        <v>448939</v>
+        <v>578764</v>
       </c>
       <c r="D12" t="n">
-        <v>204748</v>
+        <v>266223</v>
       </c>
       <c r="E12" t="n">
-        <v>896119</v>
+        <v>907208</v>
       </c>
       <c r="F12" t="n">
-        <v>239562</v>
+        <v>251418</v>
       </c>
     </row>
     <row r="13">
@@ -657,19 +657,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>121257</v>
+        <v>135868</v>
       </c>
       <c r="C13" t="n">
-        <v>117604</v>
+        <v>141794</v>
       </c>
       <c r="D13" t="n">
-        <v>53299</v>
+        <v>64905</v>
       </c>
       <c r="E13" t="n">
-        <v>171493</v>
+        <v>173935</v>
       </c>
       <c r="F13" t="n">
-        <v>59049</v>
+        <v>61436</v>
       </c>
     </row>
     <row r="14">
@@ -677,19 +677,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>76267</v>
+        <v>83648</v>
       </c>
       <c r="C14" t="n">
-        <v>98878</v>
+        <v>107899</v>
       </c>
       <c r="D14" t="n">
-        <v>47879</v>
+        <v>51979</v>
       </c>
       <c r="E14" t="n">
-        <v>121817</v>
+        <v>122664</v>
       </c>
       <c r="F14" t="n">
-        <v>60771</v>
+        <v>62319</v>
       </c>
     </row>
     <row r="15">
@@ -697,19 +697,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>37306</v>
+        <v>40327</v>
       </c>
       <c r="C15" t="n">
-        <v>30030</v>
+        <v>35711</v>
       </c>
       <c r="D15" t="n">
-        <v>11386</v>
+        <v>14509</v>
       </c>
       <c r="E15" t="n">
-        <v>33460</v>
+        <v>34168</v>
       </c>
       <c r="F15" t="n">
-        <v>11080</v>
+        <v>11711</v>
       </c>
     </row>
     <row r="16">
@@ -717,19 +717,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>169556</v>
+        <v>198035</v>
       </c>
       <c r="C16" t="n">
-        <v>65582</v>
+        <v>107438</v>
       </c>
       <c r="D16" t="n">
-        <v>42627</v>
+        <v>61194</v>
       </c>
       <c r="E16" t="n">
-        <v>149629</v>
+        <v>151497</v>
       </c>
       <c r="F16" t="n">
-        <v>51437</v>
+        <v>52210</v>
       </c>
     </row>
     <row r="17">
@@ -737,19 +737,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>63434</v>
+        <v>75993</v>
       </c>
       <c r="C17" t="n">
-        <v>63305</v>
+        <v>81418</v>
       </c>
       <c r="D17" t="n">
-        <v>29425</v>
+        <v>36262</v>
       </c>
       <c r="E17" t="n">
-        <v>96630</v>
+        <v>97286</v>
       </c>
       <c r="F17" t="n">
-        <v>29264</v>
+        <v>29589</v>
       </c>
     </row>
     <row r="18">
@@ -757,19 +757,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>80673</v>
+        <v>99462</v>
       </c>
       <c r="C18" t="n">
-        <v>84186</v>
+        <v>106302</v>
       </c>
       <c r="D18" t="n">
-        <v>22338</v>
+        <v>32475</v>
       </c>
       <c r="E18" t="n">
-        <v>66671</v>
+        <v>67855</v>
       </c>
       <c r="F18" t="n">
-        <v>31301</v>
+        <v>31714</v>
       </c>
     </row>
   </sheetData>
